--- a/CumulativeTestsByTypeByCounty/2021-02-01.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-02-01.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>44925</v>
+        <v>45138</v>
       </c>
       <c r="C2" s="4">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="D2" s="4">
-        <v>4461</v>
+        <v>4485</v>
       </c>
       <c r="E2" s="4">
-        <v>50758</v>
+        <v>50998</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>3743</v>
+        <v>3745</v>
       </c>
       <c r="C3" s="4">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D3" s="4">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="E3" s="4">
-        <v>5581</v>
+        <v>5587</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>45942</v>
+        <v>45998</v>
       </c>
       <c r="C4" s="4">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="D4" s="4">
-        <v>12439</v>
+        <v>12491</v>
       </c>
       <c r="E4" s="4">
-        <v>59742</v>
+        <v>59853</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>5787</v>
+        <v>5830</v>
       </c>
       <c r="C5" s="4">
-        <v>1891</v>
+        <v>1894</v>
       </c>
       <c r="D5" s="4">
-        <v>3632</v>
+        <v>3638</v>
       </c>
       <c r="E5" s="4">
-        <v>11310</v>
+        <v>11362</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,7 +1139,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2594</v>
+        <v>2598</v>
       </c>
       <c r="C6" s="4">
         <v>102</v>
@@ -1148,7 +1148,7 @@
         <v>331</v>
       </c>
       <c r="E6" s="4">
-        <v>3027</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C7" s="4">
         <v>111</v>
@@ -1165,7 +1165,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="4">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>34322</v>
+        <v>34650</v>
       </c>
       <c r="C8" s="4">
         <v>910</v>
       </c>
       <c r="D8" s="4">
-        <v>2944</v>
+        <v>2980</v>
       </c>
       <c r="E8" s="4">
-        <v>38176</v>
+        <v>38540</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>14291</v>
+        <v>14345</v>
       </c>
       <c r="C9" s="4">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D9" s="4">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E9" s="4">
-        <v>15114</v>
+        <v>15173</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C10" s="4">
         <v>14</v>
       </c>
       <c r="D10" s="4">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E10" s="4">
-        <v>2010</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>6107</v>
+        <v>6153</v>
       </c>
       <c r="C11" s="4">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D11" s="4">
-        <v>2146</v>
+        <v>2161</v>
       </c>
       <c r="E11" s="4">
-        <v>8621</v>
+        <v>8683</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>40227</v>
+        <v>40474</v>
       </c>
       <c r="C12" s="4">
-        <v>897</v>
+        <v>939</v>
       </c>
       <c r="D12" s="4">
-        <v>10723</v>
+        <v>10745</v>
       </c>
       <c r="E12" s="4">
-        <v>51847</v>
+        <v>52158</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="C13" s="4">
         <v>8</v>
@@ -1267,7 +1267,7 @@
         <v>574</v>
       </c>
       <c r="E13" s="4">
-        <v>1678</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>26618</v>
+        <v>26637</v>
       </c>
       <c r="C14" s="4">
-        <v>4596</v>
+        <v>4615</v>
       </c>
       <c r="D14" s="4">
-        <v>4575</v>
+        <v>4609</v>
       </c>
       <c r="E14" s="4">
-        <v>35789</v>
+        <v>35861</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>197151</v>
+        <v>197894</v>
       </c>
       <c r="C15" s="4">
-        <v>12161</v>
+        <v>12208</v>
       </c>
       <c r="D15" s="4">
-        <v>6804</v>
+        <v>6845</v>
       </c>
       <c r="E15" s="4">
-        <v>216116</v>
+        <v>216947</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1309663</v>
+        <v>1324787</v>
       </c>
       <c r="C16" s="4">
-        <v>39165</v>
+        <v>39266</v>
       </c>
       <c r="D16" s="4">
-        <v>118542</v>
+        <v>119923</v>
       </c>
       <c r="E16" s="4">
-        <v>1467370</v>
+        <v>1483976</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>4577</v>
+        <v>4606</v>
       </c>
       <c r="C17" s="4">
         <v>198</v>
       </c>
       <c r="D17" s="4">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E17" s="4">
-        <v>5155</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1349,10 +1349,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>7624</v>
+        <v>7651</v>
       </c>
       <c r="C19" s="4">
         <v>449</v>
       </c>
       <c r="D19" s="4">
-        <v>3528</v>
+        <v>3529</v>
       </c>
       <c r="E19" s="4">
-        <v>11601</v>
+        <v>11629</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>50832</v>
+        <v>51099</v>
       </c>
       <c r="C20" s="4">
-        <v>9497</v>
+        <v>9520</v>
       </c>
       <c r="D20" s="4">
-        <v>5060</v>
+        <v>5127</v>
       </c>
       <c r="E20" s="4">
-        <v>65389</v>
+        <v>65746</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>246844</v>
+        <v>248104</v>
       </c>
       <c r="C21" s="4">
-        <v>7762</v>
+        <v>7794</v>
       </c>
       <c r="D21" s="4">
-        <v>17680</v>
+        <v>17795</v>
       </c>
       <c r="E21" s="4">
-        <v>272286</v>
+        <v>273693</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>190002</v>
+        <v>191080</v>
       </c>
       <c r="C22" s="4">
-        <v>5030</v>
+        <v>5042</v>
       </c>
       <c r="D22" s="4">
-        <v>9137</v>
+        <v>9205</v>
       </c>
       <c r="E22" s="4">
-        <v>204169</v>
+        <v>205327</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8045</v>
+        <v>8053</v>
       </c>
       <c r="C23" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D23" s="4">
         <v>233</v>
       </c>
       <c r="E23" s="4">
-        <v>8373</v>
+        <v>8382</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C24" s="4">
         <v>92</v>
@@ -1454,7 +1454,7 @@
         <v>44</v>
       </c>
       <c r="E24" s="4">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>11701</v>
+        <v>11713</v>
       </c>
       <c r="C25" s="4">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="D25" s="4">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="E25" s="4">
-        <v>13744</v>
+        <v>13760</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>14313</v>
+        <v>14361</v>
       </c>
       <c r="C26" s="4">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D26" s="4">
-        <v>13537</v>
+        <v>13543</v>
       </c>
       <c r="E26" s="4">
-        <v>28521</v>
+        <v>28578</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>11196</v>
+        <v>11256</v>
       </c>
       <c r="C27" s="4">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D27" s="4">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="E27" s="4">
-        <v>12140</v>
+        <v>12205</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>26357</v>
+        <v>26468</v>
       </c>
       <c r="C28" s="4">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="D28" s="4">
-        <v>1856</v>
+        <v>1861</v>
       </c>
       <c r="E28" s="4">
-        <v>29186</v>
+        <v>29305</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>25939</v>
+        <v>26066</v>
       </c>
       <c r="C29" s="4">
-        <v>1406</v>
+        <v>1422</v>
       </c>
       <c r="D29" s="4">
-        <v>3444</v>
+        <v>3461</v>
       </c>
       <c r="E29" s="4">
-        <v>30789</v>
+        <v>30949</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>11216</v>
+        <v>11255</v>
       </c>
       <c r="C30" s="4">
         <v>244</v>
       </c>
       <c r="D30" s="4">
-        <v>2365</v>
+        <v>2565</v>
       </c>
       <c r="E30" s="4">
-        <v>13825</v>
+        <v>14064</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>4503</v>
+        <v>4515</v>
       </c>
       <c r="C31" s="4">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D31" s="4">
-        <v>3329</v>
+        <v>3340</v>
       </c>
       <c r="E31" s="4">
-        <v>8038</v>
+        <v>8062</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>200393</v>
+        <v>201145</v>
       </c>
       <c r="C32" s="4">
-        <v>6853</v>
+        <v>6884</v>
       </c>
       <c r="D32" s="4">
-        <v>24706</v>
+        <v>24843</v>
       </c>
       <c r="E32" s="4">
-        <v>231952</v>
+        <v>232872</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>4810</v>
+        <v>4864</v>
       </c>
       <c r="C33" s="4">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D33" s="4">
-        <v>1000</v>
+        <v>1075</v>
       </c>
       <c r="E33" s="4">
-        <v>6126</v>
+        <v>6261</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1405</v>
+        <v>1410</v>
       </c>
       <c r="C34" s="4">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D34" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E34" s="4">
-        <v>2065</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>10374</v>
+        <v>10413</v>
       </c>
       <c r="C35" s="4">
-        <v>3011</v>
+        <v>3021</v>
       </c>
       <c r="D35" s="4">
-        <v>2034</v>
+        <v>2054</v>
       </c>
       <c r="E35" s="4">
-        <v>15419</v>
+        <v>15488</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,7 +1649,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>3410</v>
+        <v>3414</v>
       </c>
       <c r="C36" s="4">
         <v>35</v>
@@ -1658,7 +1658,7 @@
         <v>1408</v>
       </c>
       <c r="E36" s="4">
-        <v>4853</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>6597</v>
+        <v>6606</v>
       </c>
       <c r="C37" s="4">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D37" s="4">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="E37" s="4">
-        <v>7864</v>
+        <v>7886</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>19098</v>
+        <v>19148</v>
       </c>
       <c r="C38" s="4">
         <v>696</v>
       </c>
       <c r="D38" s="4">
-        <v>4909</v>
+        <v>4923</v>
       </c>
       <c r="E38" s="4">
-        <v>24703</v>
+        <v>24767</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,7 +1700,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>2436</v>
+        <v>2444</v>
       </c>
       <c r="C39" s="4">
         <v>124</v>
@@ -1709,7 +1709,7 @@
         <v>3433</v>
       </c>
       <c r="E39" s="4">
-        <v>5993</v>
+        <v>6001</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>3548</v>
+        <v>3558</v>
       </c>
       <c r="C40" s="4">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D40" s="4">
         <v>784</v>
       </c>
       <c r="E40" s="4">
-        <v>4432</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,16 +1734,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C41" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" s="4">
         <v>218</v>
       </c>
       <c r="E41" s="4">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="C42" s="4">
         <v>20</v>
       </c>
       <c r="D42" s="4">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="E42" s="4">
-        <v>3154</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>2700</v>
+        <v>2706</v>
       </c>
       <c r="C43" s="4">
         <v>70</v>
       </c>
       <c r="D43" s="4">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="E43" s="4">
-        <v>4851</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>711921</v>
+        <v>716737</v>
       </c>
       <c r="C44" s="4">
-        <v>71698</v>
+        <v>71904</v>
       </c>
       <c r="D44" s="4">
-        <v>55670</v>
+        <v>56457</v>
       </c>
       <c r="E44" s="4">
-        <v>839289</v>
+        <v>845098</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,7 +1802,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="C45" s="4">
         <v>13</v>
@@ -1811,7 +1811,7 @@
         <v>925</v>
       </c>
       <c r="E45" s="4">
-        <v>1848</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>9931</v>
+        <v>9968</v>
       </c>
       <c r="C46" s="4">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D46" s="4">
-        <v>2410</v>
+        <v>2412</v>
       </c>
       <c r="E46" s="4">
-        <v>12583</v>
+        <v>12624</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>74931</v>
+        <v>75442</v>
       </c>
       <c r="C47" s="4">
-        <v>6048</v>
+        <v>6063</v>
       </c>
       <c r="D47" s="4">
-        <v>11612</v>
+        <v>11667</v>
       </c>
       <c r="E47" s="4">
-        <v>92591</v>
+        <v>93172</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>5746</v>
+        <v>5787</v>
       </c>
       <c r="C48" s="4">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D48" s="4">
-        <v>1759</v>
+        <v>1770</v>
       </c>
       <c r="E48" s="4">
-        <v>7778</v>
+        <v>7835</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1253</v>
+        <v>1262</v>
       </c>
       <c r="C49" s="4">
         <v>12</v>
       </c>
       <c r="D49" s="4">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="E49" s="4">
-        <v>2286</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>20125</v>
+        <v>20202</v>
       </c>
       <c r="C50" s="4">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D50" s="4">
-        <v>3370</v>
+        <v>3400</v>
       </c>
       <c r="E50" s="4">
-        <v>24653</v>
+        <v>24762</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>70540</v>
+        <v>70762</v>
       </c>
       <c r="C51" s="4">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="D51" s="4">
-        <v>1949</v>
+        <v>1956</v>
       </c>
       <c r="E51" s="4">
-        <v>74486</v>
+        <v>74723</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,7 +1921,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C52" s="4">
         <v>13</v>
@@ -1930,7 +1930,7 @@
         <v>573</v>
       </c>
       <c r="E52" s="4">
-        <v>1174</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>3425</v>
+        <v>3428</v>
       </c>
       <c r="C53" s="4">
         <v>59</v>
       </c>
       <c r="D53" s="4">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="E53" s="4">
-        <v>4362</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1978,10 +1978,10 @@
         <v>17</v>
       </c>
       <c r="D55" s="4">
-        <v>1253</v>
+        <v>1261</v>
       </c>
       <c r="E55" s="4">
-        <v>3448</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,7 +1989,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>1895</v>
+        <v>1899</v>
       </c>
       <c r="C56" s="4">
         <v>12</v>
@@ -1998,7 +1998,7 @@
         <v>33</v>
       </c>
       <c r="E56" s="4">
-        <v>1940</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,7 +2006,7 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="C57" s="4">
         <v>54</v>
@@ -2015,7 +2015,7 @@
         <v>1055</v>
       </c>
       <c r="E57" s="4">
-        <v>1989</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>1829632</v>
+        <v>1840343</v>
       </c>
       <c r="C58" s="4">
-        <v>117764</v>
+        <v>118133</v>
       </c>
       <c r="D58" s="4">
-        <v>119442</v>
+        <v>120644</v>
       </c>
       <c r="E58" s="4">
-        <v>2066838</v>
+        <v>2079120</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>6798</v>
+        <v>6803</v>
       </c>
       <c r="C59" s="4">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D59" s="4">
-        <v>1636</v>
+        <v>1646</v>
       </c>
       <c r="E59" s="4">
-        <v>8843</v>
+        <v>8860</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>6891</v>
+        <v>6910</v>
       </c>
       <c r="C60" s="4">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D60" s="4">
-        <v>1779</v>
+        <v>1784</v>
       </c>
       <c r="E60" s="4">
-        <v>8829</v>
+        <v>8854</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4083</v>
+        <v>4084</v>
       </c>
       <c r="C61" s="4">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D61" s="4">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="E61" s="4">
-        <v>5909</v>
+        <v>5912</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="C62" s="4">
         <v>197</v>
       </c>
       <c r="D62" s="4">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="E62" s="4">
-        <v>2466</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>441878</v>
+        <v>444821</v>
       </c>
       <c r="C63" s="4">
-        <v>52452</v>
+        <v>52606</v>
       </c>
       <c r="D63" s="4">
-        <v>47180</v>
+        <v>47625</v>
       </c>
       <c r="E63" s="4">
-        <v>541510</v>
+        <v>545052</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2131,10 +2131,10 @@
         <v>5</v>
       </c>
       <c r="D64" s="4">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E64" s="4">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,7 +2142,7 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>7719</v>
+        <v>7776</v>
       </c>
       <c r="C65" s="4">
         <v>80</v>
@@ -2151,7 +2151,7 @@
         <v>409</v>
       </c>
       <c r="E65" s="4">
-        <v>8208</v>
+        <v>8265</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2165,10 +2165,10 @@
         <v>191</v>
       </c>
       <c r="D66" s="4">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E66" s="4">
-        <v>1746</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>14411</v>
+        <v>14428</v>
       </c>
       <c r="C67" s="4">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="D67" s="4">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="E67" s="4">
-        <v>17276</v>
+        <v>17308</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>3935</v>
+        <v>3951</v>
       </c>
       <c r="C68" s="4">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D68" s="4">
-        <v>2504</v>
+        <v>2519</v>
       </c>
       <c r="E68" s="4">
-        <v>6740</v>
+        <v>6772</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>50939</v>
+        <v>51034</v>
       </c>
       <c r="C69" s="4">
-        <v>3901</v>
+        <v>3927</v>
       </c>
       <c r="D69" s="4">
-        <v>10550</v>
+        <v>10709</v>
       </c>
       <c r="E69" s="4">
-        <v>65390</v>
+        <v>65670</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,7 +2227,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="C70" s="4">
         <v>27</v>
@@ -2236,7 +2236,7 @@
         <v>287</v>
       </c>
       <c r="E70" s="4">
-        <v>1351</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>695751</v>
+        <v>699384</v>
       </c>
       <c r="C71" s="4">
-        <v>15083</v>
+        <v>15120</v>
       </c>
       <c r="D71" s="4">
-        <v>89949</v>
+        <v>90261</v>
       </c>
       <c r="E71" s="4">
-        <v>800783</v>
+        <v>804765</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>130255</v>
+        <v>131025</v>
       </c>
       <c r="C72" s="4">
-        <v>6387</v>
+        <v>6403</v>
       </c>
       <c r="D72" s="4">
-        <v>5893</v>
+        <v>5958</v>
       </c>
       <c r="E72" s="4">
-        <v>142535</v>
+        <v>143386</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>14552</v>
+        <v>14612</v>
       </c>
       <c r="C73" s="4">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="D73" s="4">
-        <v>3769</v>
+        <v>3829</v>
       </c>
       <c r="E73" s="4">
-        <v>19325</v>
+        <v>19450</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,7 +2295,7 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>10851</v>
+        <v>10862</v>
       </c>
       <c r="C74" s="4">
         <v>374</v>
@@ -2304,7 +2304,7 @@
         <v>1197</v>
       </c>
       <c r="E74" s="4">
-        <v>12422</v>
+        <v>12433</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>20247</v>
+        <v>20358</v>
       </c>
       <c r="C75" s="4">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="D75" s="4">
-        <v>2786</v>
+        <v>2830</v>
       </c>
       <c r="E75" s="4">
-        <v>23724</v>
+        <v>23883</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>11602</v>
+        <v>11651</v>
       </c>
       <c r="C76" s="4">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D76" s="4">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="E76" s="4">
-        <v>13140</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,7 +2346,7 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="C77" s="4">
         <v>27</v>
@@ -2355,7 +2355,7 @@
         <v>203</v>
       </c>
       <c r="E77" s="4">
-        <v>1441</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>1952</v>
+        <v>1959</v>
       </c>
       <c r="C78" s="4">
         <v>106</v>
       </c>
       <c r="D78" s="4">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E78" s="4">
-        <v>2317</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>498903</v>
+        <v>501827</v>
       </c>
       <c r="C80" s="4">
-        <v>18952</v>
+        <v>19018</v>
       </c>
       <c r="D80" s="4">
-        <v>17714</v>
+        <v>17903</v>
       </c>
       <c r="E80" s="4">
-        <v>535569</v>
+        <v>538748</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>3625</v>
+        <v>3650</v>
       </c>
       <c r="C81" s="4">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D81" s="4">
-        <v>470</v>
+        <v>509</v>
       </c>
       <c r="E81" s="4">
-        <v>4514</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>11630</v>
+        <v>11635</v>
       </c>
       <c r="C82" s="4">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D82" s="4">
-        <v>2488</v>
+        <v>2548</v>
       </c>
       <c r="E82" s="4">
-        <v>14726</v>
+        <v>14792</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>12500</v>
+        <v>12653</v>
       </c>
       <c r="C83" s="4">
         <v>375</v>
       </c>
       <c r="D83" s="4">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="E83" s="4">
-        <v>13219</v>
+        <v>13378</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>2922</v>
+        <v>2926</v>
       </c>
       <c r="C84" s="4">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D84" s="4">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="E84" s="4">
-        <v>3723</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>263523</v>
+        <v>264362</v>
       </c>
       <c r="C85" s="4">
-        <v>8019</v>
+        <v>8043</v>
       </c>
       <c r="D85" s="4">
-        <v>13897</v>
+        <v>13981</v>
       </c>
       <c r="E85" s="4">
-        <v>285439</v>
+        <v>286386</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>1359</v>
+        <v>1379</v>
       </c>
       <c r="C86" s="4">
         <v>43</v>
       </c>
       <c r="D86" s="4">
-        <v>1157</v>
+        <v>1164</v>
       </c>
       <c r="E86" s="4">
-        <v>2559</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>13923</v>
+        <v>13955</v>
       </c>
       <c r="C87" s="4">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D87" s="4">
-        <v>2242</v>
+        <v>2249</v>
       </c>
       <c r="E87" s="4">
-        <v>16467</v>
+        <v>16510</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2150</v>
+        <v>2156</v>
       </c>
       <c r="C89" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D89" s="4">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="E89" s="4">
-        <v>3411</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>10914</v>
+        <v>10953</v>
       </c>
       <c r="C90" s="4">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D90" s="4">
-        <v>2223</v>
+        <v>2277</v>
       </c>
       <c r="E90" s="4">
-        <v>13408</v>
+        <v>13503</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>6575</v>
+        <v>6577</v>
       </c>
       <c r="C91" s="4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D91" s="4">
         <v>1270</v>
       </c>
       <c r="E91" s="4">
-        <v>8095</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>82283</v>
+        <v>83059</v>
       </c>
       <c r="C92" s="4">
-        <v>3290</v>
+        <v>3307</v>
       </c>
       <c r="D92" s="4">
-        <v>7831</v>
+        <v>8233</v>
       </c>
       <c r="E92" s="4">
-        <v>93404</v>
+        <v>94599</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>39689</v>
+        <v>39837</v>
       </c>
       <c r="C93" s="4">
-        <v>8525</v>
+        <v>8567</v>
       </c>
       <c r="D93" s="4">
-        <v>9806</v>
+        <v>9870</v>
       </c>
       <c r="E93" s="4">
-        <v>58020</v>
+        <v>58274</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>21083</v>
+        <v>21160</v>
       </c>
       <c r="C94" s="4">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D94" s="4">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="E94" s="4">
-        <v>22513</v>
+        <v>22599</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>58265</v>
+        <v>58882</v>
       </c>
       <c r="C95" s="4">
-        <v>2766</v>
+        <v>2773</v>
       </c>
       <c r="D95" s="4">
-        <v>9633</v>
+        <v>9690</v>
       </c>
       <c r="E95" s="4">
-        <v>70664</v>
+        <v>71345</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>11041</v>
+        <v>11067</v>
       </c>
       <c r="C96" s="4">
         <v>237</v>
       </c>
       <c r="D96" s="4">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="E96" s="4">
-        <v>12853</v>
+        <v>12881</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,7 +2686,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="C97" s="4">
         <v>21</v>
@@ -2695,7 +2695,7 @@
         <v>1688</v>
       </c>
       <c r="E97" s="4">
-        <v>2736</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,7 +2703,7 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>4129</v>
+        <v>4141</v>
       </c>
       <c r="C98" s="4">
         <v>279</v>
@@ -2712,7 +2712,7 @@
         <v>719</v>
       </c>
       <c r="E98" s="4">
-        <v>5127</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="C99" s="4">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D99" s="4">
-        <v>1423</v>
+        <v>1440</v>
       </c>
       <c r="E99" s="4">
-        <v>2864</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="C100" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D100" s="4">
         <v>747</v>
       </c>
       <c r="E100" s="4">
-        <v>2066</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>15915</v>
+        <v>15977</v>
       </c>
       <c r="C101" s="4">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="D101" s="4">
-        <v>3830</v>
+        <v>3925</v>
       </c>
       <c r="E101" s="4">
-        <v>22740</v>
+        <v>22898</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>3047632</v>
+        <v>3068739</v>
       </c>
       <c r="C102" s="4">
-        <v>115665</v>
+        <v>116037</v>
       </c>
       <c r="D102" s="4">
-        <v>166132</v>
+        <v>167800</v>
       </c>
       <c r="E102" s="4">
-        <v>3329429</v>
+        <v>3352576</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>49334</v>
+        <v>49444</v>
       </c>
       <c r="C103" s="4">
-        <v>6192</v>
+        <v>6230</v>
       </c>
       <c r="D103" s="4">
-        <v>5581</v>
+        <v>5619</v>
       </c>
       <c r="E103" s="4">
-        <v>61107</v>
+        <v>61293</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2822,7 +2822,7 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="C105" s="4">
         <v>31</v>
@@ -2831,7 +2831,7 @@
         <v>1101</v>
       </c>
       <c r="E105" s="4">
-        <v>2240</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>178450</v>
+        <v>179732</v>
       </c>
       <c r="C106" s="4">
-        <v>9489</v>
+        <v>9546</v>
       </c>
       <c r="D106" s="4">
-        <v>7776</v>
+        <v>7803</v>
       </c>
       <c r="E106" s="4">
-        <v>195715</v>
+        <v>197081</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>22173</v>
+        <v>22310</v>
       </c>
       <c r="C108" s="4">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="D108" s="4">
-        <v>4695</v>
+        <v>4714</v>
       </c>
       <c r="E108" s="4">
-        <v>28833</v>
+        <v>28994</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>359362</v>
+        <v>360980</v>
       </c>
       <c r="C109" s="4">
-        <v>13166</v>
+        <v>13226</v>
       </c>
       <c r="D109" s="4">
-        <v>58555</v>
+        <v>58730</v>
       </c>
       <c r="E109" s="4">
-        <v>431083</v>
+        <v>432936</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>28223</v>
+        <v>28414</v>
       </c>
       <c r="C110" s="4">
         <v>933</v>
       </c>
       <c r="D110" s="4">
-        <v>3904</v>
+        <v>3906</v>
       </c>
       <c r="E110" s="4">
-        <v>33060</v>
+        <v>33253</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>6667</v>
+        <v>6686</v>
       </c>
       <c r="C111" s="4">
         <v>70</v>
       </c>
       <c r="D111" s="4">
-        <v>2374</v>
+        <v>2378</v>
       </c>
       <c r="E111" s="4">
-        <v>9111</v>
+        <v>9134</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>29089</v>
+        <v>29223</v>
       </c>
       <c r="C112" s="4">
-        <v>2153</v>
+        <v>2163</v>
       </c>
       <c r="D112" s="4">
-        <v>13040</v>
+        <v>13050</v>
       </c>
       <c r="E112" s="4">
-        <v>44282</v>
+        <v>44436</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>14122</v>
+        <v>14200</v>
       </c>
       <c r="C113" s="4">
-        <v>1770</v>
+        <v>1774</v>
       </c>
       <c r="D113" s="4">
-        <v>1805</v>
+        <v>1826</v>
       </c>
       <c r="E113" s="4">
-        <v>17697</v>
+        <v>17800</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>13125</v>
+        <v>13153</v>
       </c>
       <c r="C114" s="4">
         <v>309</v>
       </c>
       <c r="D114" s="4">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="E114" s="4">
-        <v>15010</v>
+        <v>15045</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>13115</v>
+        <v>13147</v>
       </c>
       <c r="C115" s="4">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D115" s="4">
-        <v>2825</v>
+        <v>2830</v>
       </c>
       <c r="E115" s="4">
-        <v>16336</v>
+        <v>16377</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="C116" s="4">
         <v>25</v>
       </c>
       <c r="D116" s="4">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E116" s="4">
-        <v>2682</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>61026</v>
+        <v>61453</v>
       </c>
       <c r="C117" s="4">
-        <v>3234</v>
+        <v>3249</v>
       </c>
       <c r="D117" s="4">
-        <v>6221</v>
+        <v>6279</v>
       </c>
       <c r="E117" s="4">
-        <v>70481</v>
+        <v>70981</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>7556</v>
+        <v>7580</v>
       </c>
       <c r="C118" s="4">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D118" s="4">
-        <v>2145</v>
+        <v>2191</v>
       </c>
       <c r="E118" s="4">
-        <v>10133</v>
+        <v>10208</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C119" s="4">
         <v>7</v>
       </c>
       <c r="D119" s="4">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E119" s="4">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C120" s="4">
         <v>103</v>
       </c>
       <c r="D120" s="4">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E120" s="4">
-        <v>1723</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>6034</v>
+        <v>6042</v>
       </c>
       <c r="C121" s="4">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D121" s="4">
-        <v>770</v>
+        <v>800</v>
       </c>
       <c r="E121" s="4">
-        <v>6909</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>10931</v>
+        <v>10959</v>
       </c>
       <c r="C122" s="4">
-        <v>2435</v>
+        <v>2441</v>
       </c>
       <c r="D122" s="4">
-        <v>1995</v>
+        <v>2013</v>
       </c>
       <c r="E122" s="4">
-        <v>15361</v>
+        <v>15413</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>134475</v>
+        <v>134769</v>
       </c>
       <c r="C124" s="4">
-        <v>11098</v>
+        <v>11113</v>
       </c>
       <c r="D124" s="4">
-        <v>18660</v>
+        <v>19039</v>
       </c>
       <c r="E124" s="4">
-        <v>164233</v>
+        <v>164921</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>10112</v>
+        <v>10550</v>
       </c>
       <c r="C125" s="4">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D125" s="4">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E125" s="4">
-        <v>10926</v>
+        <v>11366</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>39641</v>
+        <v>39746</v>
       </c>
       <c r="C126" s="4">
-        <v>6543</v>
+        <v>6569</v>
       </c>
       <c r="D126" s="4">
-        <v>9132</v>
+        <v>9275</v>
       </c>
       <c r="E126" s="4">
-        <v>55316</v>
+        <v>55590</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>95443</v>
+        <v>95886</v>
       </c>
       <c r="C127" s="4">
-        <v>5937</v>
+        <v>5948</v>
       </c>
       <c r="D127" s="4">
-        <v>9456</v>
+        <v>9486</v>
       </c>
       <c r="E127" s="4">
-        <v>110836</v>
+        <v>111320</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>5148</v>
+        <v>5162</v>
       </c>
       <c r="C128" s="4">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D128" s="4">
-        <v>1949</v>
+        <v>1958</v>
       </c>
       <c r="E128" s="4">
-        <v>7274</v>
+        <v>7299</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>11294</v>
+        <v>11325</v>
       </c>
       <c r="C129" s="4">
         <v>353</v>
       </c>
       <c r="D129" s="4">
-        <v>2826</v>
+        <v>2835</v>
       </c>
       <c r="E129" s="4">
-        <v>14473</v>
+        <v>14513</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>81889</v>
+        <v>82420</v>
       </c>
       <c r="C130" s="4">
-        <v>4554</v>
+        <v>4571</v>
       </c>
       <c r="D130" s="4">
-        <v>9434</v>
+        <v>9503</v>
       </c>
       <c r="E130" s="4">
-        <v>95877</v>
+        <v>96494</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>17626</v>
+        <v>17726</v>
       </c>
       <c r="C131" s="4">
-        <v>1065</v>
+        <v>1077</v>
       </c>
       <c r="D131" s="4">
-        <v>4634</v>
+        <v>4648</v>
       </c>
       <c r="E131" s="4">
-        <v>23325</v>
+        <v>23451</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3287,10 +3287,10 @@
         <v>32</v>
       </c>
       <c r="D132" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E132" s="4">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3298,7 +3298,7 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C133" s="4">
         <v>1</v>
@@ -3307,7 +3307,7 @@
         <v>252</v>
       </c>
       <c r="E133" s="4">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>25021</v>
+        <v>25199</v>
       </c>
       <c r="C134" s="4">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D134" s="4">
-        <v>14261</v>
+        <v>14335</v>
       </c>
       <c r="E134" s="4">
-        <v>39807</v>
+        <v>40062</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="C135" s="4">
         <v>34</v>
       </c>
       <c r="D135" s="4">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E135" s="4">
-        <v>1723</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3349,7 +3349,7 @@
         <v>139</v>
       </c>
       <c r="B136" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C136" s="4">
         <v>1</v>
@@ -3358,7 +3358,7 @@
         <v>26</v>
       </c>
       <c r="E136" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="137" ht="14" customHeight="1">
@@ -3366,7 +3366,7 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>1795</v>
+        <v>1802</v>
       </c>
       <c r="C137" s="4">
         <v>37</v>
@@ -3375,7 +3375,7 @@
         <v>60</v>
       </c>
       <c r="E137" s="4">
-        <v>1892</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>22135</v>
+        <v>22155</v>
       </c>
       <c r="C138" s="4">
-        <v>3618</v>
+        <v>3630</v>
       </c>
       <c r="D138" s="4">
-        <v>3809</v>
+        <v>3830</v>
       </c>
       <c r="E138" s="4">
-        <v>29562</v>
+        <v>29615</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3400,16 +3400,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C139" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D139" s="4">
         <v>1715</v>
       </c>
       <c r="E139" s="4">
-        <v>2359</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,7 +3417,7 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>6086</v>
+        <v>6134</v>
       </c>
       <c r="C140" s="4">
         <v>267</v>
@@ -3426,7 +3426,7 @@
         <v>156</v>
       </c>
       <c r="E140" s="4">
-        <v>6509</v>
+        <v>6557</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>17953</v>
+        <v>18078</v>
       </c>
       <c r="C141" s="4">
-        <v>1927</v>
+        <v>1938</v>
       </c>
       <c r="D141" s="4">
-        <v>1698</v>
+        <v>1708</v>
       </c>
       <c r="E141" s="4">
-        <v>21578</v>
+        <v>21724</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>4915</v>
+        <v>4924</v>
       </c>
       <c r="C142" s="4">
         <v>71</v>
       </c>
       <c r="D142" s="4">
-        <v>3197</v>
+        <v>3201</v>
       </c>
       <c r="E142" s="4">
-        <v>8183</v>
+        <v>8196</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>13174</v>
+        <v>13237</v>
       </c>
       <c r="C143" s="4">
         <v>577</v>
       </c>
       <c r="D143" s="4">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E143" s="4">
-        <v>15756</v>
+        <v>15820</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>9698</v>
+        <v>9726</v>
       </c>
       <c r="C144" s="4">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D144" s="4">
-        <v>1767</v>
+        <v>1783</v>
       </c>
       <c r="E144" s="4">
-        <v>11809</v>
+        <v>11855</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>6609</v>
+        <v>6627</v>
       </c>
       <c r="C145" s="4">
         <v>193</v>
       </c>
       <c r="D145" s="4">
-        <v>1731</v>
+        <v>1766</v>
       </c>
       <c r="E145" s="4">
-        <v>8533</v>
+        <v>8586</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>7728</v>
+        <v>7760</v>
       </c>
       <c r="C146" s="4">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D146" s="4">
-        <v>974</v>
+        <v>987</v>
       </c>
       <c r="E146" s="4">
-        <v>9137</v>
+        <v>9185</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>39037</v>
+        <v>39460</v>
       </c>
       <c r="C147" s="4">
         <v>2634</v>
       </c>
       <c r="D147" s="4">
-        <v>3325</v>
+        <v>3369</v>
       </c>
       <c r="E147" s="4">
-        <v>44996</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>24048</v>
+        <v>24205</v>
       </c>
       <c r="C148" s="4">
         <v>538</v>
       </c>
       <c r="D148" s="4">
-        <v>2727</v>
+        <v>2768</v>
       </c>
       <c r="E148" s="4">
-        <v>27313</v>
+        <v>27511</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3576,10 +3576,10 @@
         <v>17</v>
       </c>
       <c r="D149" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E149" s="4">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>4127</v>
+        <v>4141</v>
       </c>
       <c r="C150" s="4">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D150" s="4">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E150" s="4">
-        <v>5355</v>
+        <v>5374</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>8135</v>
+        <v>8155</v>
       </c>
       <c r="C151" s="4">
         <v>289</v>
       </c>
       <c r="D151" s="4">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E151" s="4">
-        <v>9018</v>
+        <v>9040</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3621,7 +3621,7 @@
         <v>155</v>
       </c>
       <c r="B152" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C152" s="4">
         <v>4</v>
@@ -3630,7 +3630,7 @@
         <v>3</v>
       </c>
       <c r="E152" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>168191</v>
+        <v>168478</v>
       </c>
       <c r="C153" s="4">
-        <v>6012</v>
+        <v>6027</v>
       </c>
       <c r="D153" s="4">
-        <v>71043</v>
+        <v>71290</v>
       </c>
       <c r="E153" s="4">
-        <v>245246</v>
+        <v>245795</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="C154" s="4">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D154" s="4">
-        <v>1146</v>
+        <v>1153</v>
       </c>
       <c r="E154" s="4">
-        <v>3862</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>10369</v>
+        <v>10394</v>
       </c>
       <c r="C155" s="4">
         <v>133</v>
       </c>
       <c r="D155" s="4">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="E155" s="4">
-        <v>11561</v>
+        <v>11591</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>1876</v>
+        <v>1881</v>
       </c>
       <c r="C156" s="4">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D156" s="4">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E156" s="4">
-        <v>3282</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="C157" s="4">
         <v>111</v>
       </c>
       <c r="D157" s="4">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E157" s="4">
-        <v>1539</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="C158" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D158" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E158" s="4">
-        <v>1971</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>24288</v>
+        <v>24437</v>
       </c>
       <c r="C159" s="4">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D159" s="4">
-        <v>1465</v>
+        <v>1478</v>
       </c>
       <c r="E159" s="4">
-        <v>26346</v>
+        <v>26510</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>46882</v>
+        <v>47127</v>
       </c>
       <c r="C160" s="4">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D160" s="4">
-        <v>3042</v>
+        <v>3112</v>
       </c>
       <c r="E160" s="4">
-        <v>50186</v>
+        <v>50505</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2070</v>
+        <v>2076</v>
       </c>
       <c r="C161" s="4">
         <v>37</v>
       </c>
       <c r="D161" s="4">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E161" s="4">
-        <v>2918</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>192472</v>
+        <v>192757</v>
       </c>
       <c r="C162" s="4">
-        <v>9049</v>
+        <v>9053</v>
       </c>
       <c r="D162" s="4">
-        <v>35363</v>
+        <v>35588</v>
       </c>
       <c r="E162" s="4">
-        <v>236884</v>
+        <v>237398</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>21745</v>
+        <v>21896</v>
       </c>
       <c r="C164" s="4">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="D164" s="4">
-        <v>2783</v>
+        <v>2809</v>
       </c>
       <c r="E164" s="4">
-        <v>25448</v>
+        <v>25630</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,7 +3842,7 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>1909</v>
+        <v>1954</v>
       </c>
       <c r="C165" s="4">
         <v>20</v>
@@ -3851,7 +3851,7 @@
         <v>197</v>
       </c>
       <c r="E165" s="4">
-        <v>2126</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>37707</v>
+        <v>37831</v>
       </c>
       <c r="C166" s="4">
-        <v>4813</v>
+        <v>4829</v>
       </c>
       <c r="D166" s="4">
-        <v>26122</v>
+        <v>26774</v>
       </c>
       <c r="E166" s="4">
-        <v>68642</v>
+        <v>69434</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>13049</v>
+        <v>13143</v>
       </c>
       <c r="C167" s="4">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D167" s="4">
-        <v>3807</v>
+        <v>3815</v>
       </c>
       <c r="E167" s="4">
-        <v>17624</v>
+        <v>17727</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,7 +3893,7 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>3633</v>
+        <v>3695</v>
       </c>
       <c r="C168" s="4">
         <v>79</v>
@@ -3902,7 +3902,7 @@
         <v>817</v>
       </c>
       <c r="E168" s="4">
-        <v>4529</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>3962</v>
+        <v>3966</v>
       </c>
       <c r="C169" s="4">
         <v>47</v>
       </c>
       <c r="D169" s="4">
-        <v>1936</v>
+        <v>1960</v>
       </c>
       <c r="E169" s="4">
-        <v>5945</v>
+        <v>5973</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>8704</v>
+        <v>8746</v>
       </c>
       <c r="C170" s="4">
         <v>504</v>
       </c>
       <c r="D170" s="4">
-        <v>1913</v>
+        <v>1918</v>
       </c>
       <c r="E170" s="4">
-        <v>11121</v>
+        <v>11168</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>277291</v>
+        <v>278920</v>
       </c>
       <c r="C171" s="4">
-        <v>14049</v>
+        <v>14115</v>
       </c>
       <c r="D171" s="4">
-        <v>20926</v>
+        <v>21150</v>
       </c>
       <c r="E171" s="4">
-        <v>312266</v>
+        <v>314185</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>6742</v>
+        <v>6744</v>
       </c>
       <c r="C172" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D172" s="4">
-        <v>1266</v>
+        <v>1275</v>
       </c>
       <c r="E172" s="4">
-        <v>8129</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>4551</v>
+        <v>4603</v>
       </c>
       <c r="C173" s="4">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D173" s="4">
-        <v>2483</v>
+        <v>2569</v>
       </c>
       <c r="E173" s="4">
-        <v>7634</v>
+        <v>7775</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3995,16 +3995,16 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C174" s="4">
         <v>6</v>
       </c>
       <c r="D174" s="4">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E174" s="4">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>33412</v>
+        <v>33491</v>
       </c>
       <c r="C175" s="4">
         <v>997</v>
       </c>
       <c r="D175" s="4">
-        <v>3247</v>
+        <v>3258</v>
       </c>
       <c r="E175" s="4">
-        <v>37656</v>
+        <v>37746</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>21676</v>
+        <v>21729</v>
       </c>
       <c r="C176" s="4">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="D176" s="4">
-        <v>5864</v>
+        <v>5873</v>
       </c>
       <c r="E176" s="4">
-        <v>28961</v>
+        <v>29025</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>2758</v>
+        <v>2766</v>
       </c>
       <c r="C177" s="4">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D177" s="4">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="E177" s="4">
-        <v>4615</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>6125</v>
+        <v>6146</v>
       </c>
       <c r="C178" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D178" s="4">
-        <v>2205</v>
+        <v>2209</v>
       </c>
       <c r="E178" s="4">
-        <v>8453</v>
+        <v>8479</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>178407</v>
+        <v>179011</v>
       </c>
       <c r="C179" s="4">
-        <v>34993</v>
+        <v>35086</v>
       </c>
       <c r="D179" s="4">
-        <v>27388</v>
+        <v>27621</v>
       </c>
       <c r="E179" s="4">
-        <v>240788</v>
+        <v>241718</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C180" s="4">
         <v>31</v>
       </c>
       <c r="D180" s="4">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E180" s="4">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4117,13 +4117,13 @@
         <v>619</v>
       </c>
       <c r="C181" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D181" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E181" s="4">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>21806</v>
+        <v>21922</v>
       </c>
       <c r="C182" s="4">
-        <v>4866</v>
+        <v>4871</v>
       </c>
       <c r="D182" s="4">
-        <v>5591</v>
+        <v>5782</v>
       </c>
       <c r="E182" s="4">
-        <v>32263</v>
+        <v>32575</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>11039</v>
+        <v>11088</v>
       </c>
       <c r="C183" s="4">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="D183" s="4">
-        <v>2958</v>
+        <v>2960</v>
       </c>
       <c r="E183" s="4">
-        <v>14834</v>
+        <v>14888</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>7221</v>
+        <v>7248</v>
       </c>
       <c r="C184" s="4">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D184" s="4">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="E184" s="4">
-        <v>9527</v>
+        <v>9561</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>53750</v>
+        <v>54125</v>
       </c>
       <c r="C185" s="4">
-        <v>5407</v>
+        <v>5422</v>
       </c>
       <c r="D185" s="4">
-        <v>11030</v>
+        <v>11119</v>
       </c>
       <c r="E185" s="4">
-        <v>70187</v>
+        <v>70666</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="C186" s="4">
         <v>61</v>
       </c>
       <c r="D186" s="4">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="E186" s="4">
-        <v>2489</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>8295</v>
+        <v>8307</v>
       </c>
       <c r="C187" s="4">
         <v>82</v>
       </c>
       <c r="D187" s="4">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E187" s="4">
-        <v>8953</v>
+        <v>8968</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>22911</v>
+        <v>22988</v>
       </c>
       <c r="C188" s="4">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="D188" s="4">
-        <v>3029</v>
+        <v>3079</v>
       </c>
       <c r="E188" s="4">
-        <v>26965</v>
+        <v>27096</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>61242</v>
+        <v>61457</v>
       </c>
       <c r="C189" s="4">
-        <v>2606</v>
+        <v>2618</v>
       </c>
       <c r="D189" s="4">
-        <v>7045</v>
+        <v>7072</v>
       </c>
       <c r="E189" s="4">
-        <v>70893</v>
+        <v>71147</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,7 +4267,7 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>6809</v>
+        <v>6817</v>
       </c>
       <c r="C190" s="4">
         <v>35</v>
@@ -4276,7 +4276,7 @@
         <v>456</v>
       </c>
       <c r="E190" s="4">
-        <v>7300</v>
+        <v>7308</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2259</v>
+        <v>2271</v>
       </c>
       <c r="C191" s="4">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D191" s="4">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="E191" s="4">
-        <v>2988</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>38671</v>
+        <v>38802</v>
       </c>
       <c r="C192" s="4">
-        <v>4860</v>
+        <v>4889</v>
       </c>
       <c r="D192" s="4">
-        <v>6888</v>
+        <v>6909</v>
       </c>
       <c r="E192" s="4">
-        <v>50419</v>
+        <v>50600</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4318,7 +4318,7 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C193" s="4">
         <v>26</v>
@@ -4327,7 +4327,7 @@
         <v>277</v>
       </c>
       <c r="E193" s="4">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>1602</v>
+        <v>1609</v>
       </c>
       <c r="C194" s="4">
         <v>61</v>
       </c>
       <c r="D194" s="4">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E194" s="4">
-        <v>2027</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>4878</v>
+        <v>4903</v>
       </c>
       <c r="C195" s="4">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D195" s="4">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="E195" s="4">
-        <v>6167</v>
+        <v>6205</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>4463</v>
+        <v>4495</v>
       </c>
       <c r="C196" s="4">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D196" s="4">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="E196" s="4">
-        <v>4810</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3392</v>
+        <v>3394</v>
       </c>
       <c r="C197" s="4">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D197" s="4">
-        <v>1579</v>
+        <v>1598</v>
       </c>
       <c r="E197" s="4">
-        <v>5297</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4406,13 +4406,13 @@
         <v>107</v>
       </c>
       <c r="C198" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D198" s="4">
         <v>28</v>
       </c>
       <c r="E198" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>9414</v>
+        <v>9470</v>
       </c>
       <c r="C199" s="4">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D199" s="4">
-        <v>4079</v>
+        <v>4117</v>
       </c>
       <c r="E199" s="4">
-        <v>13727</v>
+        <v>13822</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>58609</v>
+        <v>58989</v>
       </c>
       <c r="C200" s="4">
-        <v>4523</v>
+        <v>4544</v>
       </c>
       <c r="D200" s="4">
-        <v>3330</v>
+        <v>3363</v>
       </c>
       <c r="E200" s="4">
-        <v>66462</v>
+        <v>66896</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>5066</v>
+        <v>5076</v>
       </c>
       <c r="C201" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D201" s="4">
-        <v>1915</v>
+        <v>1953</v>
       </c>
       <c r="E201" s="4">
-        <v>7113</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>15131</v>
+        <v>15170</v>
       </c>
       <c r="C202" s="4">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="D202" s="4">
-        <v>1378</v>
+        <v>1386</v>
       </c>
       <c r="E202" s="4">
-        <v>18244</v>
+        <v>18299</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>4602</v>
+        <v>4612</v>
       </c>
       <c r="C203" s="4">
         <v>354</v>
       </c>
       <c r="D203" s="4">
-        <v>1231</v>
+        <v>1258</v>
       </c>
       <c r="E203" s="4">
-        <v>6187</v>
+        <v>6224</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>4499</v>
+        <v>4504</v>
       </c>
       <c r="C204" s="4">
         <v>56</v>
       </c>
       <c r="D204" s="4">
-        <v>1203</v>
+        <v>1212</v>
       </c>
       <c r="E204" s="4">
-        <v>5758</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>12193</v>
+        <v>12304</v>
       </c>
       <c r="C205" s="4">
-        <v>1300</v>
+        <v>1306</v>
       </c>
       <c r="D205" s="4">
-        <v>1524</v>
+        <v>1556</v>
       </c>
       <c r="E205" s="4">
-        <v>15017</v>
+        <v>15166</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>23550</v>
+        <v>23666</v>
       </c>
       <c r="C206" s="4">
-        <v>6395</v>
+        <v>6411</v>
       </c>
       <c r="D206" s="4">
-        <v>9557</v>
+        <v>9602</v>
       </c>
       <c r="E206" s="4">
-        <v>39502</v>
+        <v>39679</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2246</v>
+        <v>2257</v>
       </c>
       <c r="C207" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D207" s="4">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="E207" s="4">
-        <v>3677</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,16 +4573,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C208" s="4">
         <v>12</v>
       </c>
       <c r="D208" s="4">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E208" s="4">
-        <v>1105</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>15279</v>
+        <v>15292</v>
       </c>
       <c r="C209" s="4">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D209" s="4">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E209" s="4">
-        <v>15885</v>
+        <v>15903</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C210" s="4">
         <v>62</v>
       </c>
       <c r="D210" s="4">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E210" s="4">
-        <v>1018</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>9962</v>
+        <v>9986</v>
       </c>
       <c r="C211" s="4">
         <v>349</v>
       </c>
       <c r="D211" s="4">
-        <v>1899</v>
+        <v>1908</v>
       </c>
       <c r="E211" s="4">
-        <v>12210</v>
+        <v>12243</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>149544</v>
+        <v>149976</v>
       </c>
       <c r="C213" s="4">
-        <v>8563</v>
+        <v>8568</v>
       </c>
       <c r="D213" s="4">
-        <v>13315</v>
+        <v>13369</v>
       </c>
       <c r="E213" s="4">
-        <v>171422</v>
+        <v>171913</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>3583</v>
+        <v>3587</v>
       </c>
       <c r="C214" s="4">
         <v>345</v>
       </c>
       <c r="D214" s="4">
-        <v>3378</v>
+        <v>3417</v>
       </c>
       <c r="E214" s="4">
-        <v>7306</v>
+        <v>7349</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>39555</v>
+        <v>39803</v>
       </c>
       <c r="C215" s="4">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D215" s="4">
-        <v>3143</v>
+        <v>3150</v>
       </c>
       <c r="E215" s="4">
-        <v>43161</v>
+        <v>43425</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>2119</v>
+        <v>2129</v>
       </c>
       <c r="C216" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D216" s="4">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="E216" s="4">
-        <v>3480</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4726,7 +4726,7 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C217" s="4">
         <v>6</v>
@@ -4735,7 +4735,7 @@
         <v>389</v>
       </c>
       <c r="E217" s="4">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4749,10 +4749,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="4">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E218" s="4">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4760,16 +4760,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1171</v>
+        <v>1180</v>
       </c>
       <c r="C219" s="4">
         <v>24</v>
       </c>
       <c r="D219" s="4">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E219" s="4">
-        <v>1692</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>2991</v>
+        <v>2995</v>
       </c>
       <c r="C220" s="4">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D220" s="4">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="E220" s="4">
-        <v>3733</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1264507</v>
+        <v>1272017</v>
       </c>
       <c r="C221" s="4">
-        <v>81558</v>
+        <v>81812</v>
       </c>
       <c r="D221" s="4">
-        <v>110146</v>
+        <v>110844</v>
       </c>
       <c r="E221" s="4">
-        <v>1456211</v>
+        <v>1464673</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>73622</v>
+        <v>73776</v>
       </c>
       <c r="C222" s="4">
-        <v>2918</v>
+        <v>2929</v>
       </c>
       <c r="D222" s="4">
-        <v>27210</v>
+        <v>27356</v>
       </c>
       <c r="E222" s="4">
-        <v>103750</v>
+        <v>104061</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>2691</v>
+        <v>2692</v>
       </c>
       <c r="C224" s="4">
         <v>96</v>
       </c>
       <c r="D224" s="4">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="E224" s="4">
-        <v>3709</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>18977</v>
+        <v>19190</v>
       </c>
       <c r="C226" s="4">
-        <v>948</v>
+        <v>987</v>
       </c>
       <c r="D226" s="4">
-        <v>2453</v>
+        <v>2647</v>
       </c>
       <c r="E226" s="4">
-        <v>22378</v>
+        <v>22824</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>64076</v>
+        <v>64394</v>
       </c>
       <c r="C227" s="4">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="D227" s="4">
-        <v>30962</v>
+        <v>31201</v>
       </c>
       <c r="E227" s="4">
-        <v>96401</v>
+        <v>96963</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>761691</v>
+        <v>766117</v>
       </c>
       <c r="C228" s="4">
-        <v>30936</v>
+        <v>33778</v>
       </c>
       <c r="D228" s="4">
-        <v>75974</v>
+        <v>76592</v>
       </c>
       <c r="E228" s="4">
-        <v>868601</v>
+        <v>876487</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>8232</v>
+        <v>8263</v>
       </c>
       <c r="C229" s="4">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D229" s="4">
-        <v>1744</v>
+        <v>1757</v>
       </c>
       <c r="E229" s="4">
-        <v>10177</v>
+        <v>10223</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>7335</v>
+        <v>7343</v>
       </c>
       <c r="C230" s="4">
         <v>816</v>
       </c>
       <c r="D230" s="4">
-        <v>3160</v>
+        <v>3165</v>
       </c>
       <c r="E230" s="4">
-        <v>11311</v>
+        <v>11324</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>8587</v>
+        <v>8621</v>
       </c>
       <c r="C231" s="4">
-        <v>1698</v>
+        <v>1710</v>
       </c>
       <c r="D231" s="4">
-        <v>2509</v>
+        <v>2528</v>
       </c>
       <c r="E231" s="4">
-        <v>12794</v>
+        <v>12859</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4987,10 +4987,10 @@
         <v>64</v>
       </c>
       <c r="D232" s="4">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="E232" s="4">
-        <v>1994</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>19747</v>
+        <v>19889</v>
       </c>
       <c r="C233" s="4">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D233" s="4">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="E233" s="4">
-        <v>20780</v>
+        <v>20928</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>35887</v>
+        <v>36053</v>
       </c>
       <c r="C234" s="4">
         <v>1051</v>
       </c>
       <c r="D234" s="4">
-        <v>4390</v>
+        <v>4406</v>
       </c>
       <c r="E234" s="4">
-        <v>41328</v>
+        <v>41510</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>14954</v>
+        <v>15050</v>
       </c>
       <c r="C235" s="4">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="D235" s="4">
-        <v>3941</v>
+        <v>4039</v>
       </c>
       <c r="E235" s="4">
-        <v>20515</v>
+        <v>20711</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>32185</v>
+        <v>32312</v>
       </c>
       <c r="C236" s="4">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="D236" s="4">
-        <v>8763</v>
+        <v>8935</v>
       </c>
       <c r="E236" s="4">
-        <v>42233</v>
+        <v>42534</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>77856</v>
+        <v>78160</v>
       </c>
       <c r="C237" s="4">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="D237" s="4">
-        <v>4718</v>
+        <v>4781</v>
       </c>
       <c r="E237" s="4">
-        <v>83589</v>
+        <v>83962</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>24293</v>
+        <v>24484</v>
       </c>
       <c r="C238" s="4">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="D238" s="4">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="E238" s="4">
-        <v>26167</v>
+        <v>26367</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>3913</v>
+        <v>3921</v>
       </c>
       <c r="C239" s="4">
         <v>109</v>
       </c>
       <c r="D239" s="4">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E239" s="4">
-        <v>4258</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>29898</v>
+        <v>30021</v>
       </c>
       <c r="C240" s="4">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D240" s="4">
-        <v>2692</v>
+        <v>2698</v>
       </c>
       <c r="E240" s="4">
-        <v>33064</v>
+        <v>33195</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>286503</v>
+        <v>288770</v>
       </c>
       <c r="C241" s="4">
-        <v>4034</v>
+        <v>4045</v>
       </c>
       <c r="D241" s="4">
-        <v>27950</v>
+        <v>28085</v>
       </c>
       <c r="E241" s="4">
-        <v>318487</v>
+        <v>320900</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>25644</v>
+        <v>25707</v>
       </c>
       <c r="C242" s="4">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D242" s="4">
-        <v>1497</v>
+        <v>1529</v>
       </c>
       <c r="E242" s="4">
-        <v>27828</v>
+        <v>27924</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>92218</v>
+        <v>92332</v>
       </c>
       <c r="C244" s="4">
-        <v>1605</v>
+        <v>1615</v>
       </c>
       <c r="D244" s="4">
-        <v>13567</v>
+        <v>13584</v>
       </c>
       <c r="E244" s="4">
-        <v>107390</v>
+        <v>107531</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>9813</v>
+        <v>9835</v>
       </c>
       <c r="C245" s="4">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D245" s="4">
         <v>3020</v>
       </c>
       <c r="E245" s="4">
-        <v>12960</v>
+        <v>12984</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>17779</v>
+        <v>17899</v>
       </c>
       <c r="C246" s="4">
         <v>151</v>
       </c>
       <c r="D246" s="4">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="E246" s="4">
-        <v>18609</v>
+        <v>18735</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>323022</v>
+        <v>325034</v>
       </c>
       <c r="C247" s="4">
-        <v>12413</v>
+        <v>12646</v>
       </c>
       <c r="D247" s="4">
-        <v>30946</v>
+        <v>31482</v>
       </c>
       <c r="E247" s="4">
-        <v>366381</v>
+        <v>369162</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>24036</v>
+        <v>24377</v>
       </c>
       <c r="C248" s="4">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D248" s="4">
-        <v>4628</v>
+        <v>4662</v>
       </c>
       <c r="E248" s="4">
-        <v>29480</v>
+        <v>29859</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C249" s="4">
         <v>35</v>
       </c>
       <c r="D249" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E249" s="4">
-        <v>1037</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>36344</v>
+        <v>36598</v>
       </c>
       <c r="C250" s="4">
-        <v>2827</v>
+        <v>2831</v>
       </c>
       <c r="D250" s="4">
-        <v>3718</v>
+        <v>3747</v>
       </c>
       <c r="E250" s="4">
-        <v>42889</v>
+        <v>43176</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>13658</v>
+        <v>13721</v>
       </c>
       <c r="C251" s="4">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="D251" s="4">
-        <v>2385</v>
+        <v>2411</v>
       </c>
       <c r="E251" s="4">
-        <v>17733</v>
+        <v>17824</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="C252" s="4">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D252" s="4">
         <v>345</v>
       </c>
       <c r="E252" s="4">
-        <v>2441</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>5727</v>
+        <v>5747</v>
       </c>
       <c r="C253" s="4">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D253" s="4">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="E253" s="4">
-        <v>7264</v>
+        <v>7288</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>13687</v>
+        <v>13764</v>
       </c>
       <c r="C254" s="4">
         <v>110</v>
       </c>
       <c r="D254" s="4">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="E254" s="4">
-        <v>15807</v>
+        <v>15892</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>7772</v>
+        <v>7852</v>
       </c>
       <c r="C255" s="4">
         <v>205</v>
       </c>
       <c r="D255" s="4">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E255" s="4">
-        <v>8213</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>126481</v>
+        <v>126581</v>
       </c>
       <c r="C256" s="4">
-        <v>4586</v>
+        <v>4691</v>
       </c>
       <c r="D256" s="4">
-        <v>2438</v>
+        <v>2484</v>
       </c>
       <c r="E256" s="4">
-        <v>133505</v>
+        <v>133756</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>17399120</v>
+        <v>17504358</v>
       </c>
       <c r="C257" s="4">
-        <v>918035</v>
+        <v>924087</v>
       </c>
       <c r="D257" s="4">
-        <v>1803806</v>
+        <v>1819443</v>
       </c>
       <c r="E257" s="4">
-        <v>20120961</v>
+        <v>20247888</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
